--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.9999999999954712</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.9999999999954712</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.191779712793767E-09</v>
+        <v>3.608291491697465E-10</v>
       </c>
       <c r="E3">
-        <v>7.191779712793767E-09</v>
+        <v>3.608291491697465E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.974014865232965E-15</v>
+        <v>1.976246654820856E-29</v>
       </c>
       <c r="E4">
-        <v>1.974014865232965E-15</v>
+        <v>1.976246654820856E-29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.8736710641214823</v>
+        <v>0.01841013135184652</v>
       </c>
       <c r="E5">
-        <v>0.8736710641214823</v>
+        <v>0.01841013135184652</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.499307729936395E-50</v>
+        <v>2.684844441776036E-44</v>
       </c>
       <c r="E6">
-        <v>3.499307729936395E-50</v>
+        <v>2.684844441776036E-44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.110223024625157E-15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9936067061995016</v>
+        <v>0.1189651221027286</v>
       </c>
       <c r="E8">
-        <v>0.006393293800498356</v>
+        <v>0.8810348778972714</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999998445383966</v>
+        <v>0.9999864915141926</v>
       </c>
       <c r="E9">
-        <v>1.554616033683232E-07</v>
+        <v>1.350848580738973E-05</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.770297931593629E-34</v>
+        <v>9.843467562190021E-31</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.90036353963826E-87</v>
+        <v>8.468257556382933E-88</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>32.01097869873047</v>
+        <v>29.78525924682617</v>
       </c>
       <c r="G11">
         <v>0.6</v>
